--- a/data/trans_dic/P17A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus</t>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -639,7 +640,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 23,62</t>
+          <t>7,59; 36,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +650,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,18</t>
+          <t>2,22; 20,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +660,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 18,88</t>
+          <t>6,75; 23,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -719,7 +720,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,29</t>
+          <t>0,0; 11,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +730,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 12,07</t>
+          <t>1,79; 14,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,88</t>
+          <t>1,57; 9,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -799,7 +800,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,44</t>
+          <t>0,0; 11,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +810,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,96</t>
+          <t>6,8; 19,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +820,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,07</t>
+          <t>4,88; 14,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 9,4</t>
+          <t>2,49; 13,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,36</t>
+          <t>11,33; 26,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 14,26</t>
+          <t>8,51; 18,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -959,7 +960,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,76</t>
+          <t>2,61; 15,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +970,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 12,42</t>
+          <t>0,0; 13,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +980,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,98</t>
+          <t>2,37; 10,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1040,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 19,13</t>
+          <t>2,96; 26,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 24,69</t>
+          <t>4,08; 22,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,93; 19,43</t>
+          <t>5,76; 20,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1120,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,01</t>
+          <t>4,68; 10,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1130,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,89</t>
+          <t>8,46; 14,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,12 +1140,19 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,65</t>
+          <t>7,22; 11,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16176</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10166</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26342</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6537; 31400</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2610; 23562</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13745; 47764</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8748</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11669</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15750</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2380; 19472</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4234; 24735</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4741</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27166</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16469</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14639; 42378</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17344; 50218</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10304</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34932</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>45236</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4071; 22611</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21668; 50797</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30173; 64515</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9782</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13670</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3628; 21227</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14208</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5745; 25428</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11900</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22028</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2570; 23291</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4365; 24377</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11170; 39130</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>54052</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>96800</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>150853</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>35214; 81090</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>73429; 123402</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116888; 185635</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>